--- a/results/mp/logistic/corona/confidence/168/stop-words-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,12 +40,12 @@
     <t>name</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>kill</t>
   </si>
   <si>
@@ -55,37 +55,37 @@
     <t>crude</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
+    <t>stop</t>
   </si>
   <si>
     <t>negative</t>
@@ -94,135 +94,132 @@
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>support</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>amazing</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>strong</t>
   </si>
   <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>wish</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>save</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>share</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
@@ -230,9 +227,6 @@
   </si>
   <si>
     <t>increase</t>
-  </si>
-  <si>
-    <t>helping</t>
   </si>
 </sst>
 </file>
@@ -590,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,7 +595,7 @@
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -659,13 +653,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7328767123287672</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C3">
-        <v>214</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>214</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -677,19 +671,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -701,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -709,13 +703,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6896551724137931</v>
+        <v>0.7534246575342466</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>220</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -727,19 +721,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K4">
-        <v>0.9333333333333333</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -751,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -759,13 +753,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6842105263157895</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -777,19 +771,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K5">
-        <v>0.9322033898305084</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -801,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -809,13 +803,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6153846153846154</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -827,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -851,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -859,13 +853,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5882352941176471</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -877,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K7">
-        <v>0.8947368421052632</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -901,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -909,13 +903,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5277777777777778</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -927,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K8">
-        <v>0.8846153846153846</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -951,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -959,13 +953,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4324324324324325</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -977,19 +971,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K9">
-        <v>0.875</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1001,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1009,13 +1003,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4210526315789473</v>
+        <v>0.4864864864864865</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1027,19 +1021,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K10">
-        <v>0.8511749347258486</v>
+        <v>0.839622641509434</v>
       </c>
       <c r="L10">
-        <v>326</v>
+        <v>89</v>
       </c>
       <c r="M10">
-        <v>326</v>
+        <v>89</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1051,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>57</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1059,13 +1053,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4021164021164021</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C11">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1077,19 +1071,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K11">
-        <v>0.839622641509434</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L11">
-        <v>89</v>
+        <v>313</v>
       </c>
       <c r="M11">
-        <v>89</v>
+        <v>313</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1101,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>17</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1109,13 +1103,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3333333333333333</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="D12">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1127,19 +1121,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K12">
-        <v>0.8125</v>
+        <v>0.79375</v>
       </c>
       <c r="L12">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="M12">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1151,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1159,13 +1153,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3275193798449613</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="C13">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>169</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1177,19 +1171,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>347</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K13">
-        <v>0.8125</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L13">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="M13">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1201,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1209,13 +1203,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.24</v>
+        <v>0.3468992248062016</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1227,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>57</v>
+        <v>337</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K14">
-        <v>0.8055555555555556</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L14">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="M14">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1251,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1259,7 +1253,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2203389830508475</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C15">
         <v>13</v>
@@ -1277,19 +1271,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K15">
-        <v>0.7878787878787878</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1301,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1309,13 +1303,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1879194630872483</v>
+        <v>0.2266666666666667</v>
       </c>
       <c r="C16">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1327,19 +1321,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K16">
-        <v>0.7816901408450704</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L16">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="M16">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1351,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1359,37 +1353,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.006071929005137786</v>
+        <v>0.1610738255033557</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>2128</v>
+        <v>125</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K17">
-        <v>0.7804878048780488</v>
+        <v>0.7734375</v>
       </c>
       <c r="L17">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="M17">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1401,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1409,37 +1403,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.005152979066022544</v>
+        <v>0.05952380952380952</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E18">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>3089</v>
+        <v>237</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K18">
-        <v>0.7777777777777778</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1459,13 +1453,13 @@
         <v>41</v>
       </c>
       <c r="K19">
-        <v>0.7777777777777778</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1477,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1485,13 +1479,13 @@
         <v>42</v>
       </c>
       <c r="K20">
-        <v>0.7758620689655172</v>
+        <v>0.7394366197183099</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1503,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1511,13 +1505,13 @@
         <v>43</v>
       </c>
       <c r="K21">
-        <v>0.775</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L21">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="M21">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1529,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1537,13 +1531,13 @@
         <v>44</v>
       </c>
       <c r="K22">
-        <v>0.7727272727272727</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1555,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1563,13 +1557,13 @@
         <v>45</v>
       </c>
       <c r="K23">
-        <v>0.75</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L23">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1581,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1589,13 +1583,13 @@
         <v>46</v>
       </c>
       <c r="K24">
-        <v>0.75</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="M24">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1607,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1641,13 +1635,13 @@
         <v>48</v>
       </c>
       <c r="K26">
-        <v>0.6842105263157895</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L26">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1659,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1667,13 +1661,13 @@
         <v>49</v>
       </c>
       <c r="K27">
-        <v>0.6595744680851063</v>
+        <v>0.66</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1685,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1693,13 +1687,13 @@
         <v>50</v>
       </c>
       <c r="K28">
-        <v>0.6571428571428571</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L28">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M28">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1711,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1719,13 +1713,13 @@
         <v>51</v>
       </c>
       <c r="K29">
-        <v>0.6507936507936508</v>
+        <v>0.6147058823529412</v>
       </c>
       <c r="L29">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="M29">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1737,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>22</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1745,13 +1739,13 @@
         <v>52</v>
       </c>
       <c r="K30">
-        <v>0.65</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L30">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M30">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1763,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1771,13 +1765,13 @@
         <v>53</v>
       </c>
       <c r="K31">
-        <v>0.64</v>
+        <v>0.6046511627906976</v>
       </c>
       <c r="L31">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="M31">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1789,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1797,25 +1791,25 @@
         <v>54</v>
       </c>
       <c r="K32">
-        <v>0.6363636363636364</v>
+        <v>0.6</v>
       </c>
       <c r="L32">
+        <v>21</v>
+      </c>
+      <c r="M32">
+        <v>21</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>14</v>
-      </c>
-      <c r="M32">
-        <v>14</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>8</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1823,13 +1817,13 @@
         <v>55</v>
       </c>
       <c r="K33">
-        <v>0.6071428571428571</v>
+        <v>0.6</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1841,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1849,13 +1843,13 @@
         <v>56</v>
       </c>
       <c r="K34">
-        <v>0.6046511627906976</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L34">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="M34">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1867,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1875,13 +1869,13 @@
         <v>57</v>
       </c>
       <c r="K35">
-        <v>0.5852941176470589</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L35">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="M35">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1893,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>141</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1901,13 +1895,13 @@
         <v>58</v>
       </c>
       <c r="K36">
-        <v>0.5690376569037657</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L36">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1919,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>103</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1953,13 +1947,13 @@
         <v>60</v>
       </c>
       <c r="K38">
-        <v>0.5638297872340425</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L38">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M38">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1971,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>41</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1979,13 +1973,13 @@
         <v>61</v>
       </c>
       <c r="K39">
-        <v>0.5627118644067797</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L39">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="M39">
-        <v>166</v>
+        <v>52</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1997,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>129</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2005,13 +1999,13 @@
         <v>62</v>
       </c>
       <c r="K40">
-        <v>0.5384615384615384</v>
+        <v>0.5439330543933054</v>
       </c>
       <c r="L40">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="M40">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2023,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>30</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2031,13 +2025,13 @@
         <v>63</v>
       </c>
       <c r="K41">
-        <v>0.5</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L41">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M41">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2049,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2057,13 +2051,13 @@
         <v>64</v>
       </c>
       <c r="K42">
-        <v>0.4848484848484849</v>
+        <v>0.5220338983050847</v>
       </c>
       <c r="L42">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="M42">
-        <v>16</v>
+        <v>154</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2075,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>17</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2083,13 +2077,13 @@
         <v>65</v>
       </c>
       <c r="K43">
-        <v>0.4814814814814815</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L43">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2101,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2109,13 +2103,13 @@
         <v>66</v>
       </c>
       <c r="K44">
-        <v>0.4642857142857143</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2127,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2135,13 +2129,13 @@
         <v>67</v>
       </c>
       <c r="K45">
-        <v>0.4523809523809524</v>
+        <v>0.4</v>
       </c>
       <c r="L45">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M45">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2153,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2161,13 +2155,13 @@
         <v>68</v>
       </c>
       <c r="K46">
-        <v>0.4044943820224719</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="L46">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M46">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2179,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2187,13 +2181,13 @@
         <v>69</v>
       </c>
       <c r="K47">
-        <v>0.3725490196078431</v>
+        <v>0.3013698630136986</v>
       </c>
       <c r="L47">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M47">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2205,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2213,7 +2207,7 @@
         <v>70</v>
       </c>
       <c r="K48">
-        <v>0.3013698630136986</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="L48">
         <v>22</v>
@@ -2231,59 +2225,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="10:17">
-      <c r="J49" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K49">
-        <v>0.2564102564102564</v>
-      </c>
-      <c r="L49">
-        <v>20</v>
-      </c>
-      <c r="M49">
-        <v>20</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="10:17">
-      <c r="J50" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K50">
-        <v>0.2203389830508475</v>
-      </c>
-      <c r="L50">
-        <v>13</v>
-      </c>
-      <c r="M50">
-        <v>13</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
